--- a/benchmarks/cscs2022/xlsx/Random/170.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/170.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FA72E-3D78-4F47-A612-96454FE1F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32134F8F-23E8-4453-A514-667A099BA8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,524 +35,530 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
-  </si>
-  <si>
-    <t>f131</t>
-  </si>
-  <si>
-    <t>f132</t>
-  </si>
-  <si>
-    <t>f133</t>
-  </si>
-  <si>
-    <t>f134</t>
-  </si>
-  <si>
-    <t>f135</t>
-  </si>
-  <si>
-    <t>f136</t>
-  </si>
-  <si>
-    <t>f137</t>
-  </si>
-  <si>
-    <t>f138</t>
-  </si>
-  <si>
-    <t>f139</t>
-  </si>
-  <si>
-    <t>f140</t>
-  </si>
-  <si>
-    <t>f141</t>
-  </si>
-  <si>
-    <t>f142</t>
-  </si>
-  <si>
-    <t>f143</t>
-  </si>
-  <si>
-    <t>f144</t>
-  </si>
-  <si>
-    <t>f145</t>
-  </si>
-  <si>
-    <t>f146</t>
-  </si>
-  <si>
-    <t>f147</t>
-  </si>
-  <si>
-    <t>f148</t>
-  </si>
-  <si>
-    <t>f149</t>
-  </si>
-  <si>
-    <t>f150</t>
-  </si>
-  <si>
-    <t>f151</t>
-  </si>
-  <si>
-    <t>f152</t>
-  </si>
-  <si>
-    <t>f153</t>
-  </si>
-  <si>
-    <t>f154</t>
-  </si>
-  <si>
-    <t>f155</t>
-  </si>
-  <si>
-    <t>f156</t>
-  </si>
-  <si>
-    <t>f157</t>
-  </si>
-  <si>
-    <t>f158</t>
-  </si>
-  <si>
-    <t>f159</t>
-  </si>
-  <si>
-    <t>f160</t>
-  </si>
-  <si>
-    <t>f161</t>
-  </si>
-  <si>
-    <t>f162</t>
-  </si>
-  <si>
-    <t>f163</t>
-  </si>
-  <si>
-    <t>f164</t>
-  </si>
-  <si>
-    <t>f165</t>
-  </si>
-  <si>
-    <t>f166</t>
-  </si>
-  <si>
-    <t>f167</t>
-  </si>
-  <si>
-    <t>f168</t>
-  </si>
-  <si>
-    <t>f169</t>
-  </si>
-  <si>
-    <t>f170</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
+    <t>F145</t>
+  </si>
+  <si>
+    <t>F146</t>
+  </si>
+  <si>
+    <t>F147</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F149</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>F151</t>
+  </si>
+  <si>
+    <t>F152</t>
+  </si>
+  <si>
+    <t>F153</t>
+  </si>
+  <si>
+    <t>F154</t>
+  </si>
+  <si>
+    <t>F155</t>
+  </si>
+  <si>
+    <t>F156</t>
+  </si>
+  <si>
+    <t>F157</t>
+  </si>
+  <si>
+    <t>F158</t>
+  </si>
+  <si>
+    <t>F159</t>
+  </si>
+  <si>
+    <t>F160</t>
+  </si>
+  <si>
+    <t>F161</t>
+  </si>
+  <si>
+    <t>F162</t>
+  </si>
+  <si>
+    <t>F163</t>
+  </si>
+  <si>
+    <t>F164</t>
+  </si>
+  <si>
+    <t>F165</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>F167</t>
+  </si>
+  <si>
+    <t>F168</t>
+  </si>
+  <si>
+    <t>F169</t>
+  </si>
+  <si>
+    <t>F170</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection sqref="A1:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>8.7856918732350167</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -903,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>75.933479761531231</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>39.117247149879724</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>10.249973852107521</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>50.726911410940282</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>98.839033573893943</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>38.489697730362934</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>80.221734128229258</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>2.3010145382282188</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>95.073737056793235</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>42.150402677544193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>21.232088693651292</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>80.953875117665504</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>5.7525363455705474</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,7 +1091,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>31.377470975839344</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>21.232088693651292</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>48.73967158247045</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>63.382491371195478</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>54.387616358121534</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>31.900428825436673</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>99.152808283652334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>30.781036834924969</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>43.144611186903141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>80.320600272851294</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>29.587312414733969</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>54.911323328785812</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>52.52387448840382</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>54.996589358799454</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>38.369713506139149</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>48.260572987721687</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>74.522510231923604</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>83.731241473397006</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>52.012278308321967</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>68.980218281036827</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>8.2708049113233297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>5.8833560709413373</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>2.131650750341064</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>76.909959072305597</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>81.59959072305594</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>7.0770804911323335</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>80.57639836289222</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>25.409276944065482</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>20.202796128437548</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>66.369642034106633</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>15.286526348133354</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>68.059609771086187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>3.1494853280073745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>53.387617145490857</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>73.820863419880169</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>60.762021815947151</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>51.697649408511296</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>72.284529113535115</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>42.172376709171914</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>42.556460285758178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>41.32739284068213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1659,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>31.418036564756488</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>35.566139191888155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>55.92256875096021</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>69.211860500844992</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,7 +1721,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>55.692118605008453</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>29.497618681825166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>64.218774005223537</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>47.395913350745126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2">
-        <v>83.299096138044376</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2">
-        <v>37.592440427280195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>49.096138044371408</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="2">
-        <v>44.165981922760892</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="2">
-        <v>84.737058340180781</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="2">
-        <v>3.3894823336072308</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>97.781429745275261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2">
-        <v>88.74281018898931</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>45.295809367296627</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2">
-        <v>29.889071487263763</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2">
-        <v>36.154478225143798</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>3.9030402629416598</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>39.235825801150369</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>23.726376335250617</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>95.932621199671317</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,7 +1987,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2">
-        <v>40.160230073952341</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2">
-        <v>37.69515201314708</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2">
-        <v>34.716516023007401</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>74.671322925225965</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>45.912078882497944</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2">
-        <v>3.9030402629416598</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2">
-        <v>44.175684277530237</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>4.2011457670273709</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="2">
-        <v>77.530235518777843</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="2">
-        <v>101.33672819859963</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,7 +2127,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="2">
-        <v>29.789942711648632</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,7 +2141,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>19.605346912794399</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>46.339910884786761</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2">
-        <v>25.206874602164227</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2">
-        <v>8.2749840865690629</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,7 +2197,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>56.906429026098031</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2">
-        <v>102.22788033099935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,7 +2225,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="2">
-        <v>29.28071292170592</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="2">
-        <v>27.243793761935073</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,7 +2253,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="2">
-        <v>111.90324633991089</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,7 +2267,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="2">
-        <v>5.7288351368555057</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>16.677275620623806</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="2">
-        <v>100.82749840865691</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2">
-        <v>82.240611075747921</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="2">
-        <v>31.190324633991086</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,7 +2337,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>62.88987905792488</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,7 +2351,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>16.422660725652449</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="D106" s="2">
-        <v>75.669764898851824</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="D107" s="2">
-        <v>94.915254237288138</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="2">
-        <v>40.677966101694913</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="2">
-        <v>43.193001640240574</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,7 +2421,7 @@
         <v>14</v>
       </c>
       <c r="D110" s="2">
-        <v>57.845817386550031</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="D111" s="2">
-        <v>56.533624931656647</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="2">
-        <v>71.514488791689445</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2457,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="2">
-        <v>67.577911427009298</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="2">
-        <v>27.227993439037725</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="D115" s="2">
-        <v>4.4833242208857298</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2499,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="D116" s="2">
-        <v>99.945325314379446</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2513,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="2">
-        <v>21.104428649535265</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2527,7 +2533,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="2">
-        <v>16.73045379989065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2541,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="D119" s="2">
-        <v>30.071077091306723</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2555,7 +2561,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2">
-        <v>29.633679606342263</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2569,7 +2575,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="2">
-        <v>54.565336249316566</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2583,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="2">
-        <v>34.882449425915802</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2597,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="D123" s="2">
-        <v>31.492618917441227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2611,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="D124" s="2">
-        <v>70.420995079278299</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2625,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="D125" s="2">
-        <v>34.226353198469113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2639,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="2">
-        <v>37.288135593220339</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2653,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="D127" s="2">
-        <v>82.926322352696658</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2667,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="2">
-        <v>39.384807232671726</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,7 +2687,7 @@
         <v>15</v>
       </c>
       <c r="D129" s="2">
-        <v>12.78187675361114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2695,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="D130" s="2">
-        <v>101.21583705705081</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2709,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="2">
-        <v>55.803803387716925</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2723,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="D132" s="2">
-        <v>16.522913852229035</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2737,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="D133" s="2">
-        <v>12.366205964875817</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2751,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="D134" s="2">
-        <v>88.745713394991171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2765,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>22.861893380442687</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2779,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="2">
-        <v>60.895770549724617</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2793,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="2">
-        <v>24.212823443832487</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2807,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="D138" s="2">
-        <v>54.660708718694792</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2821,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="2">
-        <v>42.710173542554294</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2835,7 +2841,7 @@
         <v>15</v>
       </c>
       <c r="D140" s="2">
-        <v>90.927985035851606</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2849,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="2">
-        <v>85.628182479476266</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2863,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="2">
-        <v>71.391457965291494</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2877,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="D143" s="2">
-        <v>17.769926218435</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2891,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="D144" s="2">
-        <v>21.510963317052894</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2905,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="2">
-        <v>4.8841317676400289</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2919,7 +2925,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="2">
-        <v>18.705185493089473</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2933,7 +2939,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="2">
-        <v>74.093318092071073</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2947,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="D148" s="2">
-        <v>79.199780761852566</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2961,7 +2967,7 @@
         <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>16.899607198319174</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2975,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="D150" s="2">
-        <v>71.252397917237602</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2989,7 +2995,7 @@
         <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>57.64136293048324</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3003,7 +3009,7 @@
         <v>16</v>
       </c>
       <c r="D152" s="2">
-        <v>56.088426052799853</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3017,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="D153" s="2">
-        <v>42.020644925550386</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3031,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>38.914771170183613</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3045,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>87.969306659358736</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3059,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="D156" s="2">
-        <v>70.521604092445415</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3073,7 +3079,7 @@
         <v>16</v>
       </c>
       <c r="D157" s="2">
-        <v>8.9522243537042119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3087,7 +3093,7 @@
         <v>16</v>
       </c>
       <c r="D158" s="2">
-        <v>16.808257970220151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3101,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="D159" s="2">
-        <v>5.7550013702384213</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3115,7 +3121,7 @@
         <v>16</v>
       </c>
       <c r="D160" s="2">
-        <v>23.659450077646841</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3129,7 +3135,7 @@
         <v>16</v>
       </c>
       <c r="D161" s="2">
-        <v>80.478669955238871</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3143,7 +3149,7 @@
         <v>16</v>
       </c>
       <c r="D162" s="2">
-        <v>25.486434639627294</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3157,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>61.203982826345111</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3171,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="D164" s="2">
-        <v>74.084223988307301</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3185,7 +3191,7 @@
         <v>16</v>
       </c>
       <c r="D165" s="2">
-        <v>33.251119028044215</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3199,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>20.55357632228008</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3213,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>11.418653512377819</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3227,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>80.295971499040832</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3241,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="D169" s="2">
-        <v>9.3176212661003017</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3255,10 +3261,11 @@
         <v>16</v>
       </c>
       <c r="D170" s="2">
-        <v>28.226911482597973</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>